--- a/data/SOFR_clean.xlsx
+++ b/data/SOFR_clean.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ106"/>
+  <dimension ref="A1:DQ117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,364 +442,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -39125,6 +39125,4021 @@
       </c>
       <c r="DQ106" t="n">
         <v>1.08338640154904</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.10139</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0913915586146192</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0838818573605845</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0790599552871499</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0747463601785173</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0714300888898904</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0679095760024319</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0630597551321979</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0595437274916012</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.059245605210308</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0620794416485389</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.0679948455755949</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.07678212503956169</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.0884877957294377</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.101346610430772</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.116514291081029</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.13234745291594</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.148563168538046</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.165973194127973</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.184744230732449</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.205150714052332</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.227483615542566</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.250265498720948</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.273441272930667</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.296335022354615</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.31826402969219</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.338833024884745</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.359839882429659</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.380945359296828</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0.40237949469848</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.423497836924926</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.444984084602166</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0.466142395406836</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.487227987154372</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.506163112634445</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.5255013465531559</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.544655819500517</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.562017658595629</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.578409606873449</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.595483801112646</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.611942963489268</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.627926432169724</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.643921243484494</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.65966331912909</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.675074539072629</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.690246160408402</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.704625791808277</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0.718792173768812</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0.732363981779828</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0.74530420289696</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0.757253111244174</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0.769065698163557</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0.780376661195294</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0.79122937726322</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0.801329930188642</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0.811395495660348</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>0.821113592875875</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>0.830717517278974</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0.839340692537104</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>0.848208580345033</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>0.857122126970715</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>0.865358121405828</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>0.873479368738776</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0.881388076776911</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>0.88907940551801</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>0.896629644300472</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>0.903792026899744</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>0.910805036095771</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>0.9176572416316749</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>0.924266613115914</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>0.9304261115478381</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>0.936547799333014</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>0.942416927244031</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>0.948030573231329</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>0.953215442355474</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>0.958318530192792</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>0.963158361415427</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>0.967732585563709</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>0.97194821948151</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>0.975990546336208</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>0.979879303590934</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>0.983297689856362</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>0.986406730976517</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>0.989494667371867</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>0.992304697228034</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>0.99486974901617</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>0.997296629467562</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>0.999573353605842</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>1.00171663134577</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>1.00376409036332</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>1.0056659861767</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>1.00750190360249</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>1.00928313627676</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>1.01100284609064</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>1.01263832857264</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>1.0142746953838</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>1.01588724846394</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>1.01748761040048</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>1.01903467904466</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>1.02064316059604</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>1.02227121919757</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>1.02396184247777</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>1.02554418227774</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>1.02722519876984</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1.02895825940465</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>1.03058737368355</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>1.03215926413406</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>1.03380589927625</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>1.03537587218708</v>
+      </c>
+      <c r="DG107" t="n">
+        <v>1.03686333129731</v>
+      </c>
+      <c r="DH107" t="n">
+        <v>1.03831048391482</v>
+      </c>
+      <c r="DI107" t="n">
+        <v>1.03969258695424</v>
+      </c>
+      <c r="DJ107" t="n">
+        <v>1.04101594863126</v>
+      </c>
+      <c r="DK107" t="n">
+        <v>1.04225738148961</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>1.04337344332506</v>
+      </c>
+      <c r="DM107" t="n">
+        <v>1.0444324651466</v>
+      </c>
+      <c r="DN107" t="n">
+        <v>1.04538847634444</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>1.04623485502641</v>
+      </c>
+      <c r="DP107" t="n">
+        <v>1.04694328421987</v>
+      </c>
+      <c r="DQ107" t="n">
+        <v>1.04755550749012</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0861711976512546</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0831217539597178</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.07961726147569061</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.07702588430253229</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0761729706819462</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0790567703684074</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.0800356966231746</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0810798953365042</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0842698000882587</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0895423571700811</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0970692405650979</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.106582573054726</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.118405893612751</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.13098912801807</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.146457443901416</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.163274980669963</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.182056045976648</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.20189327413813</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.223156888874427</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.245419282710164</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.268723810925472</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.291967411961795</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.315602726847384</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.339366078160681</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.362806858556984</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.385170537915795</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.407999131883488</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.430563954706652</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.452866694274563</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0.474335782093059</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.495814927499574</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0.516724210307184</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0.53765579048983</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0.556088987056221</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0.575356047343634</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.594644282180057</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.61318957359936</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.630397061205634</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.648580278430604</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.66573578661929</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.682595781085963</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.698597926549677</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.714268161383749</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.729411605027141</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.744172642179624</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.758067048707607</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.771701291080402</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0.784750102403284</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0.797212454901724</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0.808742662492247</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0.820157939262084</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0.831098719948778</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0.841600001676831</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0.851371117429419</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0.861100032689216</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>0.8704788268411</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>0.879823529464411</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>0.888007060085932</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>0.896492832282298</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>0.904897571638837</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0.912881093810562</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>0.920464342813747</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0.92790605023582</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0.935122756300104</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0.942192009792574</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>0.948888759811058</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>0.95544157249971</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>0.961844839703573</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>0.968026896923835</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>0.973798243206484</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>0.979549309557418</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>0.985083293268049</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>0.990401434367347</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>0.9953418621133669</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>1.00023871956467</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>1.00492303374705</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>1.00939580212411</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>1.01356754777778</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>1.01762456361033</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>1.02155405353553</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>1.02519146959358</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>1.02845075765612</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>1.03178691240533</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>1.03484421695532</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>1.03777345445682</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>1.04049152968143</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>1.04310090798308</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>1.04557961640945</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>1.04796153048725</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>1.05017914170594</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>1.05231608334742</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>1.05437652759618</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>1.0563438730732</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>1.05818522189892</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>1.05998912509207</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>1.06172030633208</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>1.0633850460969</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>1.06493794441023</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>1.06648931597592</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>1.06799141259167</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>1.06949504802757</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>1.07081307946482</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>1.07217454757021</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>1.07351062115956</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>1.07476137631233</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>1.07588974101053</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>1.07704666808194</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>1.07810246542093</v>
+      </c>
+      <c r="DG108" t="n">
+        <v>1.07910306853849</v>
+      </c>
+      <c r="DH108" t="n">
+        <v>1.08001454312458</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>1.08086607854347</v>
+      </c>
+      <c r="DJ108" t="n">
+        <v>1.0816530692506</v>
+      </c>
+      <c r="DK108" t="n">
+        <v>1.08236352347873</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>1.08297594382103</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>1.08352958820635</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>1.08400050551923</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>1.08438675126572</v>
+      </c>
+      <c r="DP108" t="n">
+        <v>1.08467805871212</v>
+      </c>
+      <c r="DQ108" t="n">
+        <v>1.08489230007301</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.05069</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.06995216431303521</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0661454006653384</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.06360639391943169</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0639052706729359</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0656496927962457</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0652766048520208</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.0673458562921104</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.07094950741349521</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.074916679899421</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.07976189142274</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.0864445032043788</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.0952858502435598</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.106768198949612</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.11948284808256</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.134824986463323</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.151163098393062</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.168750724164379</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.187536489869289</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.206664113861222</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.226575591826652</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.24712787002012</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.267700898276889</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.288136809803458</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.308989915121697</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.329701642159132</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.349541394066546</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.369798025999459</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.389756208393861</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.409383122731074</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0.428253576087134</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.447203332359849</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.46580672725252</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0.484451433542863</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0.501365134019918</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.518874940178245</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0.536349567446211</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.552853319693843</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.568422799505325</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.584628614298483</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.599897512910475</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.614749883596038</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.6293281501079721</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.6431491426428529</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.656667290833515</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.669854789781353</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0.68227811684005</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.694478844658913</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0.706165620729198</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0.717336387095148</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0.727680412338864</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0.737931435982961</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0.747872368199243</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0.757220863754971</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0.766029279975974</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0.774813356242516</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>0.783296030888067</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>0.791676423070106</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>0.799194804904512</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0.806916204199609</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>0.814581827405234</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>0.821802745417489</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>0.828905969506657</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0.835662850227213</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>0.842301610389711</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>0.8488156487231781</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>0.855063171984212</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>0.8610504285050991</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>0.866973619398308</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>0.872697372676886</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>0.878044554008223</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>0.883375511668182</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>0.888506616808712</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>0.893437744774815</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>0.898017662092521</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>0.902555018613083</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>0.906938107270412</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>0.911028704852171</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>0.914881403727568</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>0.918621305315007</v>
+      </c>
+      <c r="CD109" t="n">
+        <v>0.922235238890833</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>0.9255360366206939</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>0.928551932986413</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>0.931593748674133</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>0.934372452337854</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>0.936998062488132</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>0.9395067556011401</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>0.941828206795899</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>0.94405076151781</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>0.946178830536852</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>0.948174258017554</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>0.950048189188474</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>0.951868847632649</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>0.953600760440835</v>
+      </c>
+      <c r="CR109" t="n">
+        <v>0.955215833742999</v>
+      </c>
+      <c r="CS109" t="n">
+        <v>0.956792392318522</v>
+      </c>
+      <c r="CT109" t="n">
+        <v>0.958316099559229</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>0.959744980979946</v>
+      </c>
+      <c r="CV109" t="n">
+        <v>0.961088579945327</v>
+      </c>
+      <c r="CW109" t="n">
+        <v>0.9624269269139361</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>0.963719245263752</v>
+      </c>
+      <c r="CY109" t="n">
+        <v>0.964996185829102</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>0.966137186289777</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>0.967297808235024</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>0.96843157161444</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>0.969475892394668</v>
+      </c>
+      <c r="DD109" t="n">
+        <v>0.970433199213861</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>0.971395786352367</v>
+      </c>
+      <c r="DF109" t="n">
+        <v>0.972265891791824</v>
+      </c>
+      <c r="DG109" t="n">
+        <v>0.973072624350927</v>
+      </c>
+      <c r="DH109" t="n">
+        <v>0.973821259854848</v>
+      </c>
+      <c r="DI109" t="n">
+        <v>0.9744860974579</v>
+      </c>
+      <c r="DJ109" t="n">
+        <v>0.975094336159507</v>
+      </c>
+      <c r="DK109" t="n">
+        <v>0.97562812655919</v>
+      </c>
+      <c r="DL109" t="n">
+        <v>0.976071567998738</v>
+      </c>
+      <c r="DM109" t="n">
+        <v>0.976452463711616</v>
+      </c>
+      <c r="DN109" t="n">
+        <v>0.976752528726456</v>
+      </c>
+      <c r="DO109" t="n">
+        <v>0.9769697583032</v>
+      </c>
+      <c r="DP109" t="n">
+        <v>0.97709925348376</v>
+      </c>
+      <c r="DQ109" t="n">
+        <v>0.977147923059614</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.07279068665578479</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0699461853789229</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0663931746744556</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.06780617306024241</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0685849851232795</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.06922856200148921</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.0709652760971593</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0729752689920446</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.07482217427669501</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0776799551661834</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.0826014458726342</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.09021265832711541</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.100860154412857</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.114465572135901</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.129716190887676</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.146036745497887</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.163640099959774</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.182249330521233</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.202038633741055</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.222310454666308</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.243641455428421</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.265521620491855</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.287898640788981</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.310037240325776</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.331764140026661</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.353782316835038</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.375625484772417</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.397074836530913</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0.418352386703003</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0.439549282002175</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.460274578465321</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0.480176929852701</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0.49919836825384</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0.518061405630302</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>0.537068630294389</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.554755375291945</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0.571821885385526</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.589749798011474</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.606912174081688</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.623262782093819</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.639299654689327</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.654828320772561</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.670011984177219</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.684364739212889</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>0.6983741393944199</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.71202424544547</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0.72515897897597</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0.737644552701751</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0.749503490599864</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0.761152094163194</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0.77235522483367</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0.783028971494885</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>0.793214194512959</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0.803270349915685</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0.8129918183074361</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>0.822300945856177</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>0.831228173829478</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>0.840085900852142</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>0.848967817353344</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>0.857151338119422</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>0.86521002532345</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>0.873050590378384</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0.880751044652635</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>0.88805982849575</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>0.895220410524462</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>0.902146647792534</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>0.9089072443767791</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>0.915351943067902</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>0.92148567268994</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>0.927505940256358</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>0.933270894083194</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>0.938719406438027</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>0.943857399623639</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>0.9488496076005331</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>0.953576755891052</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>0.957989672989234</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>0.962139208980431</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>0.9660647077772569</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>0.969831768995563</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>0.973130389216304</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>0.976103819950897</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>0.979025686288972</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>0.981655864502789</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>0.984031974154907</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>0.986258116804684</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>0.988327569222282</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>0.990280659898861</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>0.99207463183304</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>0.993789166134583</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>0.995420955439881</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>0.997003379293818</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>0.998517948322479</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>0.999997283554612</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>1.00147179656657</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>1.0029393609302</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>1.00439756640547</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>1.00585869978453</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>1.0073841103109</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>1.00895368114845</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>1.01056101196622</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>1.0122112043116</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>1.01394949000842</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>1.0157824908638</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>1.01753977217484</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>1.01926424703086</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>1.02109921543812</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>1.02287456821523</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>1.02457910762555</v>
+      </c>
+      <c r="DG110" t="n">
+        <v>1.02625819022662</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>1.02788104654024</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>1.02945314285415</v>
+      </c>
+      <c r="DJ110" t="n">
+        <v>1.03092939413286</v>
+      </c>
+      <c r="DK110" t="n">
+        <v>1.03230212540908</v>
+      </c>
+      <c r="DL110" t="n">
+        <v>1.033605458065</v>
+      </c>
+      <c r="DM110" t="n">
+        <v>1.03479782512348</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>1.03585856985277</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>1.03678267373936</v>
+      </c>
+      <c r="DP110" t="n">
+        <v>1.03758999853806</v>
+      </c>
+      <c r="DQ110" t="n">
+        <v>1.0382498240922</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0709660131793652</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.06589195331612339</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0638596918892437</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.063854607744145</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0667714858191657</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0714585573934224</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.0758704483217896</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.081085313038957</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.08803860668121979</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0970240775040353</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.107780239627338</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.120077411462254</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.134015180911565</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.15035094963136</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.168251473101867</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.188358619802203</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.210678904262572</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.23477312056488</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.260181794593071</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.286537044037433</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.313525724486058</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.340829799136677</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.368470384011378</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.395612360255437</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.422075866659987</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0.448598265288408</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.474472240446453</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.499331091868367</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.523430048193132</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0.547214182523986</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.5706417808565371</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0.593658706873443</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.616366532482799</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0.639284755374173</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>0.662078012595083</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0.683272496634185</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.702796705269641</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.7227656353472079</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.741456806600246</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.759725554429152</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.777717432472924</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.795398577468203</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.812695070299257</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.829539689602748</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.845871170338675</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.861803415420619</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0.8771011112872</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0.891560786418198</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0.905177468744074</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0.918435509052692</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0.931082225237266</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0.943042198032871</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0.954380225752853</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0.965510554727114</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0.97621808024852</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>0.986431703637403</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0.996198493371682</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>1.0058716014408</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.01546320185056</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.02449717490522</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.03330646588378</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.04189438432321</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.05025938100659</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.05840000316616</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.06631488713398</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.07400275161437</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>1.08154309357492</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>1.08877084810509</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>1.09569252580653</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>1.10253403234176</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1.109138006055</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>1.11543561389925</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>1.12143371229962</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>1.1273275665012</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>1.13298049538072</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>1.13833423855273</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>1.14345085487586</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>1.14838198720793</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>1.15316864607816</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>1.15755960732021</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>1.16158012715155</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>1.16564178405498</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>1.16935863680824</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>1.17287715532488</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>1.17620992317432</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>1.17936894065598</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>1.18236565820665</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>1.18521100753763</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>1.18791543067983</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>1.19048890709887</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>1.19296728484532</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>1.19530589640387</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>1.19754106338299</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>1.19970416788943</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>1.20177836555671</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>1.20375032833681</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>1.20562990640177</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>1.20748570292664</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>1.20928217734098</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>1.21100735245553</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>1.2126675890489</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>1.21431505003896</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>1.21594192118707</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>1.21745834311004</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>1.21886626946776</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>1.22030274199291</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1.22162329388929</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>1.22287135909184</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>1.22404355824036</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>1.2251366344445</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>1.22615808728805</v>
+      </c>
+      <c r="DJ111" t="n">
+        <v>1.22708265593184</v>
+      </c>
+      <c r="DK111" t="n">
+        <v>1.22791028011042</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>1.2286642436068</v>
+      </c>
+      <c r="DM111" t="n">
+        <v>1.22932235254618</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>1.22987635035653</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>1.2303269207778</v>
+      </c>
+      <c r="DP111" t="n">
+        <v>1.23068497367958</v>
+      </c>
+      <c r="DQ111" t="n">
+        <v>1.23093693987538</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.060828720836013</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0552493339897209</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0545867317512986</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0554950145187937</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0591668977595505</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.062845452858058</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.0642303388483516</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.06593520900161071</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0699319721170617</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0764557732882456</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.0851797449256054</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.0957989697212987</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.108282565522741</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.123069560047582</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.13917479073571</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.157010713911459</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.176526725539629</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.197571983785674</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.21999909568841</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.243690049749566</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.268470659900885</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.293877771673872</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.319727036105484</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.345065841600963</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0.369639237676938</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0.394277601350406</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.418511168132791</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.442152166784429</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0.465522566553613</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.488915374451813</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.512105806373333</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.534873748173243</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0.557197356887373</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0.5795514658215331</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.601586078757281</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0.6218677678458751</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0.6403511533096981</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.659098409716796</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.676567186140124</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.693635742791009</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.710494903749288</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.7271125966737531</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.7434063069285261</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.759300996412847</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.774728275971598</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.789786231935997</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0.8042435784401329</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0.817899903292888</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0.830744885464297</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0.843235494852634</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0.855135099768914</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0.8663748559116961</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0.877017854561432</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0.887454425033924</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0.8974841138972089</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0.907042035370725</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>0.916173964500929</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0.925211345292727</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>0.934166462888728</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0.942596159094149</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0.950812458301305</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>0.958819189065629</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0.966615524974255</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0.9742006910451509</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0.981573959826772</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0.988734647809226</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>0.995757271198633</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>1.00248855376885</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>1.0089349843319</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>1.0153073664475</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1.02145953787825</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>1.02732771939857</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>1.03291858430072</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>1.03841449493795</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>1.04368838515401</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>1.04868614773563</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>1.05346593772474</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>1.058076321722</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>1.06255610725325</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>1.06667034372723</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>1.07044239536422</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>1.07425874777369</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>1.07775707426309</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>1.0810749179563</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>1.08422411735694</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>1.08721596223375</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>1.09006122504981</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>1.09277019025621</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>1.09535268161733</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>1.09781808772044</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>1.10020072198125</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>1.10245745293037</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>1.10462297237937</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>1.10672759433244</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>1.10875481673804</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>1.11069117495936</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>1.11254573457673</v>
+      </c>
+      <c r="CV112" t="n">
+        <v>1.1143860131714</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>1.11617672525274</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>1.11790540782983</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>1.11957754101294</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>1.12124423398614</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>1.12289621923375</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>1.12444043165826</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>1.12587690466685</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>1.12734403358758</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>1.12869285832985</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>1.12996631403095</v>
+      </c>
+      <c r="DG112" t="n">
+        <v>1.13115959236325</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>1.13226805925553</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>1.133297934815</v>
+      </c>
+      <c r="DJ112" t="n">
+        <v>1.13422248314393</v>
+      </c>
+      <c r="DK112" t="n">
+        <v>1.13504070303995</v>
+      </c>
+      <c r="DL112" t="n">
+        <v>1.1357742027153</v>
+      </c>
+      <c r="DM112" t="n">
+        <v>1.1363996980067</v>
+      </c>
+      <c r="DN112" t="n">
+        <v>1.13690835926258</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>1.13730024388976</v>
+      </c>
+      <c r="DP112" t="n">
+        <v>1.13758302573373</v>
+      </c>
+      <c r="DQ112" t="n">
+        <v>1.13774324436555</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.06381933505838509</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0568204228964572</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0547894259544545</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0557483463080678</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.058125697447734</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0601088871426288</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0620532249107906</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.06547901923881951</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0713210392284203</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.07972477930922151</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.09033887229804639</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.102848597585202</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.117257914204373</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.134114983485963</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.15234246506204</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.172446405187949</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.194366436564338</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.217806871654436</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.242469030630024</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.268113771335114</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.294529843007109</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.321472836572574</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.349022911337991</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.376395974555081</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.403422151757535</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0.430796218917436</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0.45772135083575</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.483748435274002</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.509072834968174</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0.534038092874473</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0.558472894160702</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0.582215314155758</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.605332565612132</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0.628503337198717</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0.651576518483923</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0.673230649995179</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0.6934678219135449</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.714362636795177</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.733944334642768</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.752947902812409</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.7714138766447169</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.789331951285367</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.806680109941648</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.823438330467515</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.839588364831133</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.85528062427726</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0.8703184723371949</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0.884534936980651</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0.897948207698898</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0.911031896695963</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0.923526758626273</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0.935348220955992</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0.946551326771669</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0.957536939798954</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0.968084485845517</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0.978117157813137</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0.98767582022907</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0.997099548857274</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.00639156072504</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.01508648266922</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.02350523960082</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.03165688510208</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.03954746643053</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.0471826541057</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.05456777086801</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.06170781793818</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>1.06868200112731</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>1.07534317476905</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>1.08170321812392</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>1.0879742884303</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1.09401632745607</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>1.09977093158654</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>1.10524863024602</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>1.11063160102836</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>1.11579878231476</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>1.12070036169974</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>1.12539632297739</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>1.12993744724622</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>1.13436547429155</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>1.13845057598294</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>1.14221592772621</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>1.14604822922245</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>1.14958403813395</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>1.15296039100571</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>1.15618850612649</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>1.15927908179815</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>1.16224232611838</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>1.16508798473962</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>1.16782536676282</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>1.1704633689106</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>1.17303801438566</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>1.17550154360938</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>1.17789021119883</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>1.18023663334263</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>1.1825215379139</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>1.18472801824966</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>1.18686428351541</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>1.18900713365215</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>1.19111484108801</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>1.19317093830287</v>
+      </c>
+      <c r="CY113" t="n">
+        <v>1.19518003801631</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>1.19720348177446</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>1.19923124373491</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>1.20114863421999</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>1.20295347938189</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>1.20482088745276</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>1.20656261863204</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>1.20823306903903</v>
+      </c>
+      <c r="DG113" t="n">
+        <v>1.20982626211884</v>
+      </c>
+      <c r="DH113" t="n">
+        <v>1.21133643791018</v>
+      </c>
+      <c r="DI113" t="n">
+        <v>1.2127731532423</v>
+      </c>
+      <c r="DJ113" t="n">
+        <v>1.21409977165852</v>
+      </c>
+      <c r="DK113" t="n">
+        <v>1.21531431024801</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>1.2164505805205</v>
+      </c>
+      <c r="DM113" t="n">
+        <v>1.21747550063208</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>1.21837503402451</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>1.21914851359494</v>
+      </c>
+      <c r="DP113" t="n">
+        <v>1.21981539294793</v>
+      </c>
+      <c r="DQ113" t="n">
+        <v>1.22035282611109</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0709660131792752</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0580874197743398</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0567656811036388</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0602068716987519</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.061115720141072</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0608181995430255</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0629016495447229</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.06704860098645229</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0726951793369575</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0802708539520193</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.0899509455314248</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.101781016698935</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.115932425547776</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.132249358722448</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.151195263761187</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.171428322911902</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.193385598615627</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.216805635753997</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.24144107325075</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.267093858426469</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.293552416485318</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.320434969623608</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.347667800981797</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.374348817391873</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0.400293440898467</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0.426453990647077</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0.452400756545373</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.477982811853141</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.503527190958301</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0.529081276694271</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0.554087903108941</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0.578047524734484</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.600828367957396</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>0.623246897161653</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0.644683169001909</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0.666172783389033</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0.685775604457595</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.705560190457568</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.725500738769674</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0.744344821802798</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.762744281172232</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.780662613924159</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>0.798054966405521</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.814880548999066</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.831102186357434</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.846853514019364</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0.861920759465138</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0.8761224382167619</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0.889469301680117</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0.9024419738867629</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0.914796574859808</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0.9264636234225579</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0.937510430728714</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0.948343777686535</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0.958757172374389</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>0.968684622918995</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0.978174807946401</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>0.987573457260012</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>0.996601517560088</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.00567888309665</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.01425018803845</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.0226098605892</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.03075319409437</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.03867577487824</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.04637345996061</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.05384235661765</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>1.06115702091226</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>1.06815496148355</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>1.07484076302806</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>1.08143024884728</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>1.08776919135463</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>1.0937899959503</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>1.09949829798222</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>1.10507777966071</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>1.11039641122154</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>1.11539840301972</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>1.1201408990648</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>1.12466971436491</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>1.12888451143879</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>1.13295985745401</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>1.13652054944736</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>1.13996225111364</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>1.14328474139384</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>1.14629827566332</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>1.14913310991167</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>1.15180897770621</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>1.15434470840749</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>1.15675827837206</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>1.15906685871479</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>1.16128685989757</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>1.16345721966057</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>1.16554590183532</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>1.16759123000536</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>1.16962899197517</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>1.17165010721202</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>1.17364566003426</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>1.17562766963228</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>1.17767407758015</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>1.17975248860063</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1.18185062154448</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>1.18397346756857</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>1.18618063922479</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>1.18838403147774</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>1.1906641189659</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>1.19278751745491</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>1.19495739174183</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>1.19715616426441</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>1.19922937542453</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>1.2012347253605</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>1.20315947106166</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>1.20501089697143</v>
+      </c>
+      <c r="DJ114" t="n">
+        <v>1.20673680027198</v>
+      </c>
+      <c r="DK114" t="n">
+        <v>1.20832939655156</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>1.20982870791039</v>
+      </c>
+      <c r="DM114" t="n">
+        <v>1.21118701046623</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>1.21238142163325</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>1.21340706801838</v>
+      </c>
+      <c r="DP114" t="n">
+        <v>1.2142858345755</v>
+      </c>
+      <c r="DQ114" t="n">
+        <v>1.21498355770474</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.07097000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0658974251165864</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0567697438365712</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0609208410425031</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0628413607639457</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0653403969993239</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0652776579403007</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.06330003759401839</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0628413607639448</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0659846154844234</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0722905262527577</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.0810727709249132</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.091741747539861</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.103890561914165</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.11787865214851</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.134578246041875</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.153154811541478</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.174156565520359</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.197141621992734</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.221638742650802</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.247270626009186</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.273695968286336</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.300489939849493</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.327264241613574</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.353982599982051</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.379589383192625</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0.405398107755108</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.430797531278258</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.456552193613354</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0.482174202291936</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.507577283294175</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.5325998081372471</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.556573119186652</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0.578784605810532</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0.6002592770438</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.621337350732786</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0.642565733990011</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0.662374240987598</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0.682694930301939</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.703331412855257</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0.72280786094726</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.741669362220021</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.759886906908433</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>0.777454938932665</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.7943684058782789</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0.810622703013128</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.826381253975579</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>0.841297599353422</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0.8556959606507371</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0.869123210542123</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0.8820795531572651</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0.8945937202901429</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0.906566222745707</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0.917795400360123</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0.928701716512597</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0.939306452126393</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>0.949521426065763</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0.959167645700272</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>0.968600838096444</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>0.977837458584191</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0.986989699611909</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>0.995596116874237</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.00395900389931</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.01208047766328</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.01996252325085</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.02760700399932</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.03501567069127</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>1.0421901699267</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>1.04920704952878</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>1.05584277666799</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>1.06239366962779</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>1.06864363137583</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>1.07473128032793</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>1.08046299902949</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>1.08603466269865</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>1.09143991065573</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>1.09661728530368</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>1.10151515775359</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>1.10619191197688</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>1.11069613993881</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>1.11506660295548</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>1.11894864771508</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>1.12276207498181</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>1.12650174714305</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>1.12994301183482</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>1.13322129264589</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>1.13634900643811</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>1.1393380011235</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>1.14219958788226</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>1.14494457121608</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>1.14758327700447</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>1.15012557871716</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>1.15260745469592</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>1.15498407252535</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>1.1572915226294</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>1.159562474181</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>1.16177941038818</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>1.16390344493937</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>1.16601338873996</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>1.16811511812537</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>1.17019220400651</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>1.17220481263358</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>1.17421589670372</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>1.1762176907262</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>1.17822333952388</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>1.18005847837991</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>1.18190696048895</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>1.18375766721672</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>1.18548665316065</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>1.1871484895294</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>1.18873792541648</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>1.19024989850245</v>
+      </c>
+      <c r="DJ115" t="n">
+        <v>1.19169476175484</v>
+      </c>
+      <c r="DK115" t="n">
+        <v>1.1930221000263</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>1.1942862950887</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>1.19544020235405</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>1.1965048456607</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>1.19744311593973</v>
+      </c>
+      <c r="DP115" t="n">
+        <v>1.19828407882685</v>
+      </c>
+      <c r="DQ115" t="n">
+        <v>1.19902028042541</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.09125</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0686344683478764</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.06437167127048909</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0613768825888516</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0621827468917168</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.064406371940743</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0679117425399105</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.07321529386769079</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0815421849295406</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.093321241349519</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.108466872162705</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.12657952203736</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.147165816006723</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.169741762101001</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.194419475586889</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.222362559202448</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.250846299257053</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.281512583448896</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.313592992349657</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.346995881917188</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.380253403349294</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.414160283751166</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.448064210585484</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.482088033606745</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.515286287133555</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0.547500486055562</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0.579278174063975</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0.610440408865087</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.640500220691681</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0.669102424948686</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0.696813538881621</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0.7242027792765861</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0.751208878199746</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.777375087957628</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>0.803252619189188</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0.828399615853907</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0.8526436486743461</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0.8738011603520049</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0.894415712632583</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.9150073737515499</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.934017928325947</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.95301849765049</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.971761393907819</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>0.990342604736311</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.00806899118086</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.02545354169046</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.0422181737465</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>1.05846362360041</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.07393408849838</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>1.08827736568157</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.10202884638158</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.11522753838306</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.12777823260993</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.1394823269109</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.15078893107127</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1.16172739184366</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.17221481896481</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.18207731457571</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>1.19168707965234</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.20106720387046</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.21033760622227</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.21903745837069</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.22747632378258</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.23574700484832</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.24358802249363</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1.25126867089511</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.2587040020033</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>1.26597507526099</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>1.27292699945434</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>1.27957056341285</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>1.2860561723294</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1.29237882577551</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>1.2984685395997</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>1.30420280811824</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>1.30977870767833</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>1.31519102114955</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>1.3203793041622</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>1.32529272092882</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>1.32999066365071</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>1.3345229340706</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>1.33892980601914</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>1.34285342656308</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>1.34671611962792</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>1.35055085612887</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>1.35400959233814</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>1.35734591835389</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>1.36053133977445</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>1.36360894145336</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>1.36649047102614</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>1.36928353403512</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>1.37196444965565</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>1.37456963735712</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>1.37705080219497</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>1.37944472187597</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>1.38175896854353</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>1.38402505589748</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>1.38622430682746</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>1.38831769028377</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>1.39038231053709</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>1.39242267874236</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>1.3944219134818</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>1.39634183477983</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>1.39824283322519</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>1.40011700670509</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>1.40197571817064</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>1.40365850350322</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>1.40533474025724</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>1.4070093977182</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>1.40851958361592</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>1.40996587802094</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>1.41132612866562</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>1.41260899597759</v>
+      </c>
+      <c r="DJ116" t="n">
+        <v>1.41378195222696</v>
+      </c>
+      <c r="DK116" t="n">
+        <v>1.41484378177755</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>1.41581384012531</v>
+      </c>
+      <c r="DM116" t="n">
+        <v>1.41668449422763</v>
+      </c>
+      <c r="DN116" t="n">
+        <v>1.41744037554934</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>1.41806494295875</v>
+      </c>
+      <c r="DP116" t="n">
+        <v>1.41857722827253</v>
+      </c>
+      <c r="DQ116" t="n">
+        <v>1.41896962267878</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.08111</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0689386376699741</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0638648869596273</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.063758407404475</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.06385466058880319</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.06279829915778309</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.064871468849015</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.0680688630444664</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.073382164349137</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0815206643317955</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.092750630007983</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.107067087610529</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.124698651589818</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.14458046017526</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.167051141228116</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.191949946470774</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.219467598719603</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.248500030325358</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.279526401227385</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.311791283654523</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.345307270426723</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0.378640491766162</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.412448847049511</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0.446314018635651</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.479506731579615</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0.51108776674588</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0.5421285931997381</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0.572658595045669</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.602383166792207</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0.631038290405517</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.659002228456644</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0.6866193562113539</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0.714202097218346</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0.739428333792034</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>0.764670195989786</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0.789551113561211</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0.812469740033651</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0.8334029814167579</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.8534191294003129</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.872709373098443</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.891870259157199</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.910557225453146</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.929333889518026</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>0.947854371647308</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.966189822191719</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.983826164985517</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.00086056447129</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>1.01737274578226</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.033081459628</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>1.0476129089008</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.06151084882017</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.07482066536378</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.08745266109532</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.09921395936869</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.11056200444934</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1.12153133923338</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.13226777044336</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.14193043348265</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>1.15156829674172</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.16118640875189</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.17030569122112</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.1789742492906</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.18749222370578</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.19576308739724</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.20387474918446</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.21156776215677</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.21910355140585</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>1.22647498742574</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>1.23359878179567</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>1.24032887913829</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>1.24689434564225</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1.25328796763734</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>1.25943695504872</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>1.26521618353929</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>1.27082282579479</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>1.27624960977674</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>1.28143415884183</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>1.28632457128992</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>1.29097898617503</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>1.29553953499698</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>1.29976015346233</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>1.30365942260554</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>1.30738475661151</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>1.31090753750652</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>1.31427864286131</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>1.31740556839723</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>1.32040914047793</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>1.32326688345354</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>1.32602063595092</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>1.3285946930628</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>1.33108828592359</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>1.33350897112229</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>1.33583962206229</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>1.33806655707363</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>1.34022520339374</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>1.34234756371842</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>1.34441868925812</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>1.34640362640313</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>1.34837731008631</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>1.35034656592702</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>1.35233952966725</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>1.35419254351801</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>1.35609017205423</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>1.35802172660981</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>1.35987553848067</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>1.36164620239634</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>1.36338601987222</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>1.36506786681643</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>1.36670219387199</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>1.36823017326874</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>1.36969751725534</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>1.37109534609657</v>
+      </c>
+      <c r="DJ117" t="n">
+        <v>1.37240090728641</v>
+      </c>
+      <c r="DK117" t="n">
+        <v>1.37358307730502</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>1.37467730710621</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>1.37567478197661</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>1.37655753944587</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>1.37730512708705</v>
+      </c>
+      <c r="DP117" t="n">
+        <v>1.37793958127213</v>
+      </c>
+      <c r="DQ117" t="n">
+        <v>1.37845211881303</v>
       </c>
     </row>
   </sheetData>
@@ -39138,7 +43153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ106"/>
+  <dimension ref="A1:DQ117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39148,364 +43163,364 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AI1" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AJ1" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AK1" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AO1" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AP1" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AQ1" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AR1" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AS1" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AT1" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AU1" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AV1" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AW1" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AX1" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AY1" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AZ1" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="BA1" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BB1" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BC1" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BD1" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BE1" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BF1" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BG1" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BH1" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BI1" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BJ1" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BK1" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BL1" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BM1" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BN1" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BO1" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BP1" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BQ1" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BR1" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BS1" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BT1" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BU1" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BV1" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BW1" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BX1" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BY1" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BZ1" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="BZ1" s="1" t="n">
+      <c r="CA1" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="CA1" s="1" t="n">
+      <c r="CB1" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="CB1" s="1" t="n">
+      <c r="CC1" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="CC1" s="1" t="n">
+      <c r="CD1" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="CD1" s="1" t="n">
+      <c r="CE1" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="CE1" s="1" t="n">
+      <c r="CF1" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="CF1" s="1" t="n">
+      <c r="CG1" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="CG1" s="1" t="n">
+      <c r="CH1" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="CH1" s="1" t="n">
+      <c r="CI1" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="CI1" s="1" t="n">
+      <c r="CJ1" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="CJ1" s="1" t="n">
+      <c r="CK1" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="CK1" s="1" t="n">
+      <c r="CL1" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="CL1" s="1" t="n">
+      <c r="CM1" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="CM1" s="1" t="n">
+      <c r="CN1" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="CN1" s="1" t="n">
+      <c r="CO1" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="CO1" s="1" t="n">
+      <c r="CP1" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="CP1" s="1" t="n">
+      <c r="CQ1" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="CQ1" s="1" t="n">
+      <c r="CR1" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="CR1" s="1" t="n">
+      <c r="CS1" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="CS1" s="1" t="n">
+      <c r="CT1" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="CT1" s="1" t="n">
+      <c r="CU1" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="n">
+      <c r="CV1" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="CV1" s="1" t="n">
+      <c r="CW1" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="CW1" s="1" t="n">
+      <c r="CX1" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="CX1" s="1" t="n">
+      <c r="CY1" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="CY1" s="1" t="n">
+      <c r="CZ1" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="CZ1" s="1" t="n">
+      <c r="DA1" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="DA1" s="1" t="n">
+      <c r="DB1" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="DB1" s="1" t="n">
+      <c r="DC1" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="DC1" s="1" t="n">
+      <c r="DD1" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="DD1" s="1" t="n">
+      <c r="DE1" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="DE1" s="1" t="n">
+      <c r="DF1" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="DF1" s="1" t="n">
+      <c r="DG1" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="DG1" s="1" t="n">
+      <c r="DH1" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="DH1" s="1" t="n">
+      <c r="DI1" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="DI1" s="1" t="n">
+      <c r="DJ1" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="DJ1" s="1" t="n">
+      <c r="DK1" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="DK1" s="1" t="n">
+      <c r="DL1" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="DL1" s="1" t="n">
+      <c r="DM1" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="DM1" s="1" t="n">
+      <c r="DN1" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="DN1" s="1" t="n">
+      <c r="DO1" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="DO1" s="1" t="n">
+      <c r="DP1" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="DP1" s="1" t="n">
+      <c r="DQ1" s="1" t="n">
         <v>357</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -77831,6 +81846,4021 @@
       </c>
       <c r="DQ106" t="n">
         <v>1.08401423277509</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44141</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.09015000239014261</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0750832615157692</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.06862634406737041</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0611024270885325</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0574791019526062</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0491526871210073</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0338090334326027</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0346807215728807</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0561049124351239</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0870530537197451</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.124856280773517</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.170255457232221</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.221830538675189</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.272198758051818</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.318282279237321</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.363419490159823</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.407245597547698</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.457011595366911</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.517390277629812</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.587357184836082</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.662114438834262</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.726352351186499</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.775062425279505</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.808280005192122</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.829873046574105</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.855496474512613</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.890113673835397</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.934357131141896</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.9854449341224381</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.03186207026376</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.07104135326472</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.1032415152099</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.12868267473956</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.14868584646739</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.16333870296579</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.17438134794235</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.18218398478319</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.19350934829769</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.21053524397775</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.23402823303338</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.26168258151029</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.28624444101574</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.30723266625791</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.32401437751089</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.33643238045048</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.3447455276955</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.34898060765831</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>1.34898702630314</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.34544629161544</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>1.34167166520085</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.33879513053841</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.33655551952855</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.33508502178298</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.33431273668315</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.33443699741881</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1.33524872626694</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.33690196603703</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.33919862246775</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>1.34218474753376</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.34619479195749</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.3505744986966</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.3541966815896</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.35701088230964</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>1.35887622542094</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.3597384329741</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>1.35964458815456</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.35871119448869</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>1.35678953431605</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>1.35389254985921</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>1.35003343942507</v>
+      </c>
+      <c r="BT107" t="n">
+        <v>1.3453925756535</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>1.33964876449393</v>
+      </c>
+      <c r="BV107" t="n">
+        <v>1.33294565753392</v>
+      </c>
+      <c r="BW107" t="n">
+        <v>1.32534537813179</v>
+      </c>
+      <c r="BX107" t="n">
+        <v>1.31695802546074</v>
+      </c>
+      <c r="BY107" t="n">
+        <v>1.3074086288438</v>
+      </c>
+      <c r="BZ107" t="n">
+        <v>1.29690017274069</v>
+      </c>
+      <c r="CA107" t="n">
+        <v>1.28551839769857</v>
+      </c>
+      <c r="CB107" t="n">
+        <v>1.27328673055222</v>
+      </c>
+      <c r="CC107" t="n">
+        <v>1.25975998966402</v>
+      </c>
+      <c r="CD107" t="n">
+        <v>1.24542761578998</v>
+      </c>
+      <c r="CE107" t="n">
+        <v>1.23239433609592</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>1.22042964116486</v>
+      </c>
+      <c r="CG107" t="n">
+        <v>1.20892560892279</v>
+      </c>
+      <c r="CH107" t="n">
+        <v>1.19863042466907</v>
+      </c>
+      <c r="CI107" t="n">
+        <v>1.18958923025126</v>
+      </c>
+      <c r="CJ107" t="n">
+        <v>1.18140175037386</v>
+      </c>
+      <c r="CK107" t="n">
+        <v>1.17423907432706</v>
+      </c>
+      <c r="CL107" t="n">
+        <v>1.16812324426433</v>
+      </c>
+      <c r="CM107" t="n">
+        <v>1.16296565431995</v>
+      </c>
+      <c r="CN107" t="n">
+        <v>1.15890082586746</v>
+      </c>
+      <c r="CO107" t="n">
+        <v>1.15581055530062</v>
+      </c>
+      <c r="CP107" t="n">
+        <v>1.15371702444439</v>
+      </c>
+      <c r="CQ107" t="n">
+        <v>1.1526270021565</v>
+      </c>
+      <c r="CR107" t="n">
+        <v>1.15262833300043</v>
+      </c>
+      <c r="CS107" t="n">
+        <v>1.1536212001617</v>
+      </c>
+      <c r="CT107" t="n">
+        <v>1.15565038102322</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>1.15859894983581</v>
+      </c>
+      <c r="CV107" t="n">
+        <v>1.16266765349805</v>
+      </c>
+      <c r="CW107" t="n">
+        <v>1.16777210893543</v>
+      </c>
+      <c r="CX107" t="n">
+        <v>1.17370443201978</v>
+      </c>
+      <c r="CY107" t="n">
+        <v>1.17882924634817</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>1.18275482987604</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>1.18591944635345</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1.18787134632143</v>
+      </c>
+      <c r="DC107" t="n">
+        <v>1.18874244011215</v>
+      </c>
+      <c r="DD107" t="n">
+        <v>1.18867875857154</v>
+      </c>
+      <c r="DE107" t="n">
+        <v>1.18744794656522</v>
+      </c>
+      <c r="DF107" t="n">
+        <v>1.18519494088894</v>
+      </c>
+      <c r="DG107" t="n">
+        <v>1.18196134354121</v>
+      </c>
+      <c r="DH107" t="n">
+        <v>1.17764939347197</v>
+      </c>
+      <c r="DI107" t="n">
+        <v>1.17229646764789</v>
+      </c>
+      <c r="DJ107" t="n">
+        <v>1.16582415177889</v>
+      </c>
+      <c r="DK107" t="n">
+        <v>1.1583639829257</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>1.14997806346643</v>
+      </c>
+      <c r="DM107" t="n">
+        <v>1.14034177749543</v>
+      </c>
+      <c r="DN107" t="n">
+        <v>1.1296393896977</v>
+      </c>
+      <c r="DO107" t="n">
+        <v>1.11802222597668</v>
+      </c>
+      <c r="DP107" t="n">
+        <v>1.10547198805667</v>
+      </c>
+      <c r="DQ107" t="n">
+        <v>1.09160660600051</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.08500000089410301</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0788817376439223</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0717329282207715</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0683924186496384</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.071798603438818</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.09258937465187</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0846786075403464</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.0871210041303643</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.108094818667852</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.136368748306974</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.169287648466745</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.207472758346905</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.251279656259101</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.299910573889317</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.35187282957729</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.411495356918978</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.474216435378015</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.537318892494731</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.599784188374755</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.661591580497809</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.721915775453866</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.777283482910374</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.82679263613251</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.870422979489225</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.909492271984857</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.946808237562352</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.984163614851145</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.02206440909479</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1.05923432426631</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.09234211859386</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.12110725571637</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.14569669808647</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.16707613911292</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.18852416758895</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.21028473927236</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.23509982632828</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.26072836702243</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.28372275438799</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.30356409909119</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.32124281792141</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.33580116500553</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.34804010289242</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.35822518762863</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.36621678342757</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.37206124943264</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.37570990978908</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.37730844377784</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1.37669259360246</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.37428894161328</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>1.37179231340901</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.36985456770851</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.36821398394332</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.36698678928873</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.36610415289463</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.3657790903703</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>1.36577856519335</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.3662804031651</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.36698762299403</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>1.36821034193229</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.36992279134738</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1.37180082232424</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.37326321330313</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.37428463235963</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>1.37471108206179</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.37459389121972</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>1.37388168262431</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.37272859210733</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>1.3709804915843</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>1.3686605624727</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>1.365760193268</v>
+      </c>
+      <c r="BT108" t="n">
+        <v>1.36247448004561</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>1.35850582116721</v>
+      </c>
+      <c r="BV108" t="n">
+        <v>1.35398157674794</v>
+      </c>
+      <c r="BW108" t="n">
+        <v>1.34891479516739</v>
+      </c>
+      <c r="BX108" t="n">
+        <v>1.34345893424998</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>1.33728617228059</v>
+      </c>
+      <c r="BZ108" t="n">
+        <v>1.33055791484574</v>
+      </c>
+      <c r="CA108" t="n">
+        <v>1.32330875230915</v>
+      </c>
+      <c r="CB108" t="n">
+        <v>1.31561135257823</v>
+      </c>
+      <c r="CC108" t="n">
+        <v>1.30718109001388</v>
+      </c>
+      <c r="CD108" t="n">
+        <v>1.29823690269124</v>
+      </c>
+      <c r="CE108" t="n">
+        <v>1.28969372572376</v>
+      </c>
+      <c r="CF108" t="n">
+        <v>1.28183940051085</v>
+      </c>
+      <c r="CG108" t="n">
+        <v>1.27387107279838</v>
+      </c>
+      <c r="CH108" t="n">
+        <v>1.26649787311149</v>
+      </c>
+      <c r="CI108" t="n">
+        <v>1.25945430745311</v>
+      </c>
+      <c r="CJ108" t="n">
+        <v>1.2528744618265</v>
+      </c>
+      <c r="CK108" t="n">
+        <v>1.24662421126608</v>
+      </c>
+      <c r="CL108" t="n">
+        <v>1.24074823990347</v>
+      </c>
+      <c r="CM108" t="n">
+        <v>1.23520350689752</v>
+      </c>
+      <c r="CN108" t="n">
+        <v>1.23011906862346</v>
+      </c>
+      <c r="CO108" t="n">
+        <v>1.22536583830872</v>
+      </c>
+      <c r="CP108" t="n">
+        <v>1.22094078407881</v>
+      </c>
+      <c r="CQ108" t="n">
+        <v>1.21689831110254</v>
+      </c>
+      <c r="CR108" t="n">
+        <v>1.21331359049323</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>1.21002761356962</v>
+      </c>
+      <c r="CT108" t="n">
+        <v>1.20712407998797</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>1.20457959617837</v>
+      </c>
+      <c r="CV108" t="n">
+        <v>1.20252801746037</v>
+      </c>
+      <c r="CW108" t="n">
+        <v>1.20075929728474</v>
+      </c>
+      <c r="CX108" t="n">
+        <v>1.19928150034574</v>
+      </c>
+      <c r="CY108" t="n">
+        <v>1.19734690923288</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>1.19522542405717</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>1.19249089293333</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>1.18920000706382</v>
+      </c>
+      <c r="DC108" t="n">
+        <v>1.18551570423522</v>
+      </c>
+      <c r="DD108" t="n">
+        <v>1.18158201304626</v>
+      </c>
+      <c r="DE108" t="n">
+        <v>1.17688537216166</v>
+      </c>
+      <c r="DF108" t="n">
+        <v>1.17186304872722</v>
+      </c>
+      <c r="DG108" t="n">
+        <v>1.16634511901044</v>
+      </c>
+      <c r="DH108" t="n">
+        <v>1.16044233741039</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>1.15404398957457</v>
+      </c>
+      <c r="DJ108" t="n">
+        <v>1.14710911067701</v>
+      </c>
+      <c r="DK108" t="n">
+        <v>1.13977713294415</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>1.13209725140473</v>
+      </c>
+      <c r="DM108" t="n">
+        <v>1.1237715093387</v>
+      </c>
+      <c r="DN108" t="n">
+        <v>1.11497710848315</v>
+      </c>
+      <c r="DO108" t="n">
+        <v>1.10581921236395</v>
+      </c>
+      <c r="DP108" t="n">
+        <v>1.0963071842846</v>
+      </c>
+      <c r="DQ108" t="n">
+        <v>1.08612228141083</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44155</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0689999982714699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0613627769593582</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0578125516144016</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0639098096547753</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0715829282316461</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0624977318478111</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.07854352262564419</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.09437226480769929</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.105574867285229</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.122825046994786</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.150555200762174</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.18909573307634</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.237303967975774</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.288509325217507</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.338697199223055</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.392358660297979</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.44567362844655</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.498052082741263</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.549589152394279</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.598626712956808</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.646606332371607</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.692315025907585</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.73525394785678</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.774773942691861</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.812524974164194</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.847591478646181</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.880836655198717</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.912689652607819</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.942726114423408</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.971169192357024</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0.9985849884190841</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.02518389139518</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.05088761674852</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.07489406899916</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.09578372450456</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.1164415623184</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.1353418568998</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.15250565733603</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.16809859529509</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.18302099244081</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.19626895959923</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.2077121659704</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.21733050759739</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.22484183340716</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.23052804208682</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.23425628812814</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.23614279234459</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>1.23605980396642</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.23435223937765</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>1.23256844752641</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.23132967535684</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.23044931542136</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.23000115924434</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.22985920945468</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.23029915408618</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>1.23110792195911</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.23240566705635</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.2340571724187</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>1.23604028911556</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.23862898370712</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>1.24140952236921</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.24376246196698</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.24554238292048</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>1.24670094565492</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.24728647474726</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>1.24726016884154</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.24668030773199</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>1.24550818733933</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>1.24371440760249</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>1.24129984338272</v>
+      </c>
+      <c r="BT109" t="n">
+        <v>1.23842767180214</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>1.23484711454736</v>
+      </c>
+      <c r="BV109" t="n">
+        <v>1.23066444889501</v>
+      </c>
+      <c r="BW109" t="n">
+        <v>1.22590158707242</v>
+      </c>
+      <c r="BX109" t="n">
+        <v>1.2206780253629</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>1.21469462900036</v>
+      </c>
+      <c r="BZ109" t="n">
+        <v>1.20802739582895</v>
+      </c>
+      <c r="CA109" t="n">
+        <v>1.20100656661997</v>
+      </c>
+      <c r="CB109" t="n">
+        <v>1.19336454948682</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>1.18494417000174</v>
+      </c>
+      <c r="CD109" t="n">
+        <v>1.17598606282353</v>
+      </c>
+      <c r="CE109" t="n">
+        <v>1.16745630087164</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>1.15951052778119</v>
+      </c>
+      <c r="CG109" t="n">
+        <v>1.15150870523046</v>
+      </c>
+      <c r="CH109" t="n">
+        <v>1.14409082805239</v>
+      </c>
+      <c r="CI109" t="n">
+        <v>1.13704353627434</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>1.13029549769468</v>
+      </c>
+      <c r="CK109" t="n">
+        <v>1.12406063013062</v>
+      </c>
+      <c r="CL109" t="n">
+        <v>1.11812497899575</v>
+      </c>
+      <c r="CM109" t="n">
+        <v>1.11251277025818</v>
+      </c>
+      <c r="CN109" t="n">
+        <v>1.10731017056513</v>
+      </c>
+      <c r="CO109" t="n">
+        <v>1.10254103476442</v>
+      </c>
+      <c r="CP109" t="n">
+        <v>1.09804045687163</v>
+      </c>
+      <c r="CQ109" t="n">
+        <v>1.09392739895791</v>
+      </c>
+      <c r="CR109" t="n">
+        <v>1.09025256415283</v>
+      </c>
+      <c r="CS109" t="n">
+        <v>1.08687908525054</v>
+      </c>
+      <c r="CT109" t="n">
+        <v>1.08385774110853</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>1.0812595554891</v>
+      </c>
+      <c r="CV109" t="n">
+        <v>1.07909949006602</v>
+      </c>
+      <c r="CW109" t="n">
+        <v>1.0772286158828</v>
+      </c>
+      <c r="CX109" t="n">
+        <v>1.07562538349778</v>
+      </c>
+      <c r="CY109" t="n">
+        <v>1.0736399812549</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>1.07137705461309</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>1.0685240504606</v>
+      </c>
+      <c r="DB109" t="n">
+        <v>1.06512907595039</v>
+      </c>
+      <c r="DC109" t="n">
+        <v>1.06137234600509</v>
+      </c>
+      <c r="DD109" t="n">
+        <v>1.05728353191528</v>
+      </c>
+      <c r="DE109" t="n">
+        <v>1.05247932068112</v>
+      </c>
+      <c r="DF109" t="n">
+        <v>1.04734305657248</v>
+      </c>
+      <c r="DG109" t="n">
+        <v>1.04174698170725</v>
+      </c>
+      <c r="DH109" t="n">
+        <v>1.03562201377614</v>
+      </c>
+      <c r="DI109" t="n">
+        <v>1.02917548003063</v>
+      </c>
+      <c r="DJ109" t="n">
+        <v>1.02212089111472</v>
+      </c>
+      <c r="DK109" t="n">
+        <v>1.01468126227662</v>
+      </c>
+      <c r="DL109" t="n">
+        <v>1.00687019129251</v>
+      </c>
+      <c r="DM109" t="n">
+        <v>0.9984213610156309</v>
+      </c>
+      <c r="DN109" t="n">
+        <v>0.989502734539943</v>
+      </c>
+      <c r="DO109" t="n">
+        <v>0.980232434307979</v>
+      </c>
+      <c r="DP109" t="n">
+        <v>0.970585091894077</v>
+      </c>
+      <c r="DQ109" t="n">
+        <v>0.960227629413054</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0717999972403405</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0662490803102187</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0585555625192908</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.07107994771048649</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0707669722485704</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0714260494722717</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.08018581099676569</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.08590571540127941</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0885822623361676</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.101751673561726</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.129610016504573</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.171838102031652</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.22590887386874</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.282309890966719</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.337360511702127</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.389898838954533</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.440583774548861</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.493594298035894</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.5484370058768701</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.605713072001127</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.663021963183184</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.7174313247376189</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.766416746635893</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.810511562781842</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.849804554827127</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.8883718955591789</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0.9272701838878969</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.965871633583264</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1.00334683045423</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.0364153110176</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.06398904745496</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.08576474404437</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.1029808903209</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.12166895609849</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.14396346590619</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.16907964628085</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.19532783448974</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.21885338961056</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.23919297861745</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25522043042612</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.26751553151361</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.27813503244792</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.28720371353799</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.29482016194042</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.30088508786655</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.30560124862414</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.3088243276724</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>1.31051890620576</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.31099893652298</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>1.31151012835886</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.31224992267841</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.31323248552182</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.3144697686994</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.31605326471468</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.3178769038522</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1.31993718789411</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.32224034621364</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.32489651545115</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>1.32792786932647</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.33105024136541</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>1.33424731360638</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.3368020017782</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.33839041009186</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.3390298028373</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.33876896587165</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>1.33759917712524</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.33548328638757</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>1.332398293204</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>1.32842609444674</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>1.32357938452682</v>
+      </c>
+      <c r="BT110" t="n">
+        <v>1.31769033527283</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>1.31087161534405</v>
+      </c>
+      <c r="BV110" t="n">
+        <v>1.30320691820414</v>
+      </c>
+      <c r="BW110" t="n">
+        <v>1.29464458954064</v>
+      </c>
+      <c r="BX110" t="n">
+        <v>1.28500115947946</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>1.27445000302235</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>1.26305030283194</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>1.25067566138912</v>
+      </c>
+      <c r="CB110" t="n">
+        <v>1.23710332126098</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>1.22249276077599</v>
+      </c>
+      <c r="CD110" t="n">
+        <v>1.20785044685896</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>1.19418737211132</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>1.18115693013291</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>1.16962542029883</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>1.15952957786653</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>1.15053178815227</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>1.14281025582787</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>1.13628079495356</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>1.13110347554766</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>1.12710517650562</v>
+      </c>
+      <c r="CN110" t="n">
+        <v>1.12435649011365</v>
+      </c>
+      <c r="CO110" t="n">
+        <v>1.12282744333164</v>
+      </c>
+      <c r="CP110" t="n">
+        <v>1.12257181409615</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>1.12358676686364</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>1.12585566132508</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>1.12935364552814</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>1.13404924499108</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>1.14006777990325</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>1.14737790204929</v>
+      </c>
+      <c r="CW110" t="n">
+        <v>1.15588908212844</v>
+      </c>
+      <c r="CX110" t="n">
+        <v>1.16516676640099</v>
+      </c>
+      <c r="CY110" t="n">
+        <v>1.17365505876906</v>
+      </c>
+      <c r="CZ110" t="n">
+        <v>1.18093438761914</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>1.18658042733156</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>1.19071993793276</v>
+      </c>
+      <c r="DC110" t="n">
+        <v>1.19353182971946</v>
+      </c>
+      <c r="DD110" t="n">
+        <v>1.19492245519908</v>
+      </c>
+      <c r="DE110" t="n">
+        <v>1.19487923017236</v>
+      </c>
+      <c r="DF110" t="n">
+        <v>1.19347205316649</v>
+      </c>
+      <c r="DG110" t="n">
+        <v>1.1906538922061</v>
+      </c>
+      <c r="DH110" t="n">
+        <v>1.18642681292019</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>1.18074482875147</v>
+      </c>
+      <c r="DJ110" t="n">
+        <v>1.1737309027235</v>
+      </c>
+      <c r="DK110" t="n">
+        <v>1.16533353441051</v>
+      </c>
+      <c r="DL110" t="n">
+        <v>1.1553828172685</v>
+      </c>
+      <c r="DM110" t="n">
+        <v>1.14404827506673</v>
+      </c>
+      <c r="DN110" t="n">
+        <v>1.1314443089562</v>
+      </c>
+      <c r="DO110" t="n">
+        <v>1.11742223577987</v>
+      </c>
+      <c r="DP110" t="n">
+        <v>1.10178825931688</v>
+      </c>
+      <c r="DQ110" t="n">
+        <v>1.08480375842994</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44169</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.0700000002980872</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0600981808319448</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0590240826558911</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.06296979952291371</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0775318332419062</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0933538899451407</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.100716318710047</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.116108630627329</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.142484318710156</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.17472477560231</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.21152661815909</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.252328692242215</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.297706603609786</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.351738105776154</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.414875627208916</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.484858426962085</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.5618754708065909</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.638037322408095</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.710389510721549</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.778981876151226</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.844264997912523</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.904822308509542</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.95961921011719</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.00925132562035</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.05309199535633</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1.09255002395019</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.12783247198216</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.15833351817858</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1.18564987267195</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.21654205243623</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.25275164856728</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.29388279079558</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.33730178062033</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.37297479356212</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.39790550430795</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.4110546386396</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.41550677283207</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.42306923327914</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.43720050906298</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.45729111860176</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.48218507360306</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.50498623573344</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.52354565600216</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.53792765149927</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.54834866653233</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.55474245164164</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.55698173183413</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>1.55504180874809</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.54982089888742</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>1.54466498230802</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>1.54027955222251</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.53677807510115</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.53419140007527</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.53256995528157</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.53175911479325</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>1.5318129531755</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.53274240751342</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.5346564737925</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>1.53752235117225</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.5411182575241</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.54538872907069</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.54924715309083</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.55229559954688</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.55454609255612</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.5560894341477</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.5569133765606</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.5569434185475</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>1.5561798861629</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>1.5546739971871</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>1.5525058910318</v>
+      </c>
+      <c r="BT111" t="n">
+        <v>1.54948049501826</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1.54567412820271</v>
+      </c>
+      <c r="BV111" t="n">
+        <v>1.54115898147022</v>
+      </c>
+      <c r="BW111" t="n">
+        <v>1.53596319734673</v>
+      </c>
+      <c r="BX111" t="n">
+        <v>1.52987812187957</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>1.52302978201739</v>
+      </c>
+      <c r="BZ111" t="n">
+        <v>1.51549400167813</v>
+      </c>
+      <c r="CA111" t="n">
+        <v>1.50718705832231</v>
+      </c>
+      <c r="CB111" t="n">
+        <v>1.49799160505497</v>
+      </c>
+      <c r="CC111" t="n">
+        <v>1.48791277595397</v>
+      </c>
+      <c r="CD111" t="n">
+        <v>1.47751823365446</v>
+      </c>
+      <c r="CE111" t="n">
+        <v>1.46763329294381</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>1.45769175995039</v>
+      </c>
+      <c r="CG111" t="n">
+        <v>1.44852198593244</v>
+      </c>
+      <c r="CH111" t="n">
+        <v>1.43980403632363</v>
+      </c>
+      <c r="CI111" t="n">
+        <v>1.43154464078926</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>1.42377631678302</v>
+      </c>
+      <c r="CK111" t="n">
+        <v>1.41649215184466</v>
+      </c>
+      <c r="CL111" t="n">
+        <v>1.4096687524548</v>
+      </c>
+      <c r="CM111" t="n">
+        <v>1.40331309849082</v>
+      </c>
+      <c r="CN111" t="n">
+        <v>1.39743919472283</v>
+      </c>
+      <c r="CO111" t="n">
+        <v>1.39198315825293</v>
+      </c>
+      <c r="CP111" t="n">
+        <v>1.38705912175245</v>
+      </c>
+      <c r="CQ111" t="n">
+        <v>1.38261238562157</v>
+      </c>
+      <c r="CR111" t="n">
+        <v>1.37859671828691</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>1.37505621331895</v>
+      </c>
+      <c r="CT111" t="n">
+        <v>1.37202521066335</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>1.3695292948642</v>
+      </c>
+      <c r="CV111" t="n">
+        <v>1.36743354813465</v>
+      </c>
+      <c r="CW111" t="n">
+        <v>1.36580284013425</v>
+      </c>
+      <c r="CX111" t="n">
+        <v>1.36451061201468</v>
+      </c>
+      <c r="CY111" t="n">
+        <v>1.36290880132464</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>1.36067003745393</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>1.35771602119703</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>1.35429832904146</v>
+      </c>
+      <c r="DC111" t="n">
+        <v>1.35044455308753</v>
+      </c>
+      <c r="DD111" t="n">
+        <v>1.34571784806155</v>
+      </c>
+      <c r="DE111" t="n">
+        <v>1.34055945587336</v>
+      </c>
+      <c r="DF111" t="n">
+        <v>1.33481796627822</v>
+      </c>
+      <c r="DG111" t="n">
+        <v>1.32848319013345</v>
+      </c>
+      <c r="DH111" t="n">
+        <v>1.32157649762215</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>1.31402278580032</v>
+      </c>
+      <c r="DJ111" t="n">
+        <v>1.30597432033364</v>
+      </c>
+      <c r="DK111" t="n">
+        <v>1.29737142969684</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>1.28803687633257</v>
+      </c>
+      <c r="DM111" t="n">
+        <v>1.27814221517982</v>
+      </c>
+      <c r="DN111" t="n">
+        <v>1.2677787040225</v>
+      </c>
+      <c r="DO111" t="n">
+        <v>1.25684397552754</v>
+      </c>
+      <c r="DP111" t="n">
+        <v>1.2451548989056</v>
+      </c>
+      <c r="DQ111" t="n">
+        <v>1.23292027837457</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44176</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0599999502301607</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0491122481648929</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0525496526118011</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0574363439373077</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.07305059494857601</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0799363567447282</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0714782539324178</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.0768470166079966</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.100960844041342</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.132781347471537</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.169345970122945</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.210099029653064</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.255038377666387</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.305517573651001</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.361183431255613</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.420116615563476</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.483651805245432</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.549856213177592</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.617465897058838</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.68644933386482</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.7559488201905969</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.818911842262938</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.872778793338701</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.918134193080539</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.9557464884232481</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0.99263608318866</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.0306384383075</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.06915031105893</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1.10812824390432</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.1477296941716</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.18785163981614</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.22805418326415</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.26640980068462</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.29558116091719</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.31323535780549</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.31853418744369</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.31508988487685</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.31660667060531</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.32681181049945</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.34537625022856</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.37063502042022</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.39407519789625</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.41311406935285</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.42781866471618</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.4383995892522</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.44478785792044</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.44686295716227</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>1.44460201579792</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.43892821634442</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>1.43327181379666</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.42838644967177</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.42438913327353</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.42130893098749</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.41917411759415</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.41785036746203</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>1.4173955123103</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1.41781873578202</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.41920640675984</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>1.42153108773552</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.42460915345634</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1.42836593616439</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.43176925648165</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.43445053988991</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>1.43642056091433</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.43775733773113</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>1.43844991193597</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.43843485367724</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>1.4377119993651</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>1.43632645406386</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>1.43434513316352</v>
+      </c>
+      <c r="BT112" t="n">
+        <v>1.43160019454008</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1.4281591517753</v>
+      </c>
+      <c r="BV112" t="n">
+        <v>1.42408538981673</v>
+      </c>
+      <c r="BW112" t="n">
+        <v>1.41939949761827</v>
+      </c>
+      <c r="BX112" t="n">
+        <v>1.41392132697247</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>1.4077628008788</v>
+      </c>
+      <c r="BZ112" t="n">
+        <v>1.40098912928761</v>
+      </c>
+      <c r="CA112" t="n">
+        <v>1.39352511733167</v>
+      </c>
+      <c r="CB112" t="n">
+        <v>1.38526554501663</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>1.37622295046927</v>
+      </c>
+      <c r="CD112" t="n">
+        <v>1.36690175028271</v>
+      </c>
+      <c r="CE112" t="n">
+        <v>1.35806556000532</v>
+      </c>
+      <c r="CF112" t="n">
+        <v>1.34922554688226</v>
+      </c>
+      <c r="CG112" t="n">
+        <v>1.34111337344618</v>
+      </c>
+      <c r="CH112" t="n">
+        <v>1.33344457506208</v>
+      </c>
+      <c r="CI112" t="n">
+        <v>1.3262259139447</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>1.31948662587536</v>
+      </c>
+      <c r="CK112" t="n">
+        <v>1.31321978748184</v>
+      </c>
+      <c r="CL112" t="n">
+        <v>1.30740531542214</v>
+      </c>
+      <c r="CM112" t="n">
+        <v>1.30205019623635</v>
+      </c>
+      <c r="CN112" t="n">
+        <v>1.29716512926497</v>
+      </c>
+      <c r="CO112" t="n">
+        <v>1.29269694525769</v>
+      </c>
+      <c r="CP112" t="n">
+        <v>1.28874156667355</v>
+      </c>
+      <c r="CQ112" t="n">
+        <v>1.28525508731439</v>
+      </c>
+      <c r="CR112" t="n">
+        <v>1.28219837898003</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>1.27960498122991</v>
+      </c>
+      <c r="CT112" t="n">
+        <v>1.2775007259469</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>1.27591626362273</v>
+      </c>
+      <c r="CV112" t="n">
+        <v>1.27473884705917</v>
+      </c>
+      <c r="CW112" t="n">
+        <v>1.27401469870431</v>
+      </c>
+      <c r="CX112" t="n">
+        <v>1.2735873666605</v>
+      </c>
+      <c r="CY112" t="n">
+        <v>1.27271136959395</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>1.27104613610854</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>1.26851066341919</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>1.26533020973881</v>
+      </c>
+      <c r="DC112" t="n">
+        <v>1.26154058574239</v>
+      </c>
+      <c r="DD112" t="n">
+        <v>1.25673069480744</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>1.2513246410689</v>
+      </c>
+      <c r="DF112" t="n">
+        <v>1.24516813649586</v>
+      </c>
+      <c r="DG112" t="n">
+        <v>1.23824831335283</v>
+      </c>
+      <c r="DH112" t="n">
+        <v>1.23059962528071</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>1.22213885268898</v>
+      </c>
+      <c r="DJ112" t="n">
+        <v>1.21303119188525</v>
+      </c>
+      <c r="DK112" t="n">
+        <v>1.20319048717119</v>
+      </c>
+      <c r="DL112" t="n">
+        <v>1.19244571246809</v>
+      </c>
+      <c r="DM112" t="n">
+        <v>1.18098675594096</v>
+      </c>
+      <c r="DN112" t="n">
+        <v>1.16891409770332</v>
+      </c>
+      <c r="DO112" t="n">
+        <v>1.15608779817276</v>
+      </c>
+      <c r="DP112" t="n">
+        <v>1.14232783886462</v>
+      </c>
+      <c r="DQ112" t="n">
+        <v>1.12787207414969</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.06295005045826579</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0492921946824058</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0500792873349384</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0578366443363777</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.066844444178038</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0689653623911321</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0726119120067891</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0883182236296331</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.117097334995897</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.152539216512298</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.19292552037989</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.23763976943858</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.286767197413065</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.342203080238681</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.403688979117235</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.469097559730108</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.539412887785355</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.6102338797963121</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.679554681454506</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.747389202876842</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.81413377644817</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.878193952273789</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.938438475795266</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.995523206089175</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.04819123757194</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1.0958275478231</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.13808221561878</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.17422252738416</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1.20549777288059</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.23712825736765</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.27038152903339</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.30489306176034</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.33953701907643</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.37048733796696</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.39666016658233</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.41710394465913</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.4328046861549</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.44768048882085</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.46337597734872</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.47905574044825</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.49478595492965</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.50858748052721</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.51971055850198</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.52819587663946</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.53419716536599</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.53767274222995</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.53851915161071</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>1.53672706895591</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.53285510001631</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>1.52894051159346</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.52533755940999</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.52214184118927</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.51939310143732</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.51713974985541</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.51521740910187</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>1.51369349162526</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.51259811897946</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.51200645956692</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>1.511828511004</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.51192076367103</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>1.51239904985812</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.51264618117756</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.51244476132971</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.51180164988828</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.51077277525795</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.50935117258975</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.50749021083575</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>1.50516968008989</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>1.50246180363194</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>1.49941811160306</v>
+      </c>
+      <c r="BT113" t="n">
+        <v>1.49585671207569</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>1.49186362215977</v>
+      </c>
+      <c r="BV113" t="n">
+        <v>1.48750164838898</v>
+      </c>
+      <c r="BW113" t="n">
+        <v>1.48279283626761</v>
+      </c>
+      <c r="BX113" t="n">
+        <v>1.47754932603594</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>1.47188414699668</v>
+      </c>
+      <c r="BZ113" t="n">
+        <v>1.46586377814831</v>
+      </c>
+      <c r="CA113" t="n">
+        <v>1.45942134263746</v>
+      </c>
+      <c r="CB113" t="n">
+        <v>1.45247147735024</v>
+      </c>
+      <c r="CC113" t="n">
+        <v>1.44498556261553</v>
+      </c>
+      <c r="CD113" t="n">
+        <v>1.43742209842914</v>
+      </c>
+      <c r="CE113" t="n">
+        <v>1.43037142559659</v>
+      </c>
+      <c r="CF113" t="n">
+        <v>1.42338279212312</v>
+      </c>
+      <c r="CG113" t="n">
+        <v>1.41708489444665</v>
+      </c>
+      <c r="CH113" t="n">
+        <v>1.41125334218394</v>
+      </c>
+      <c r="CI113" t="n">
+        <v>1.4058952373022</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>1.40101352370275</v>
+      </c>
+      <c r="CK113" t="n">
+        <v>1.3966009456786</v>
+      </c>
+      <c r="CL113" t="n">
+        <v>1.39266417533381</v>
+      </c>
+      <c r="CM113" t="n">
+        <v>1.38921054962239</v>
+      </c>
+      <c r="CN113" t="n">
+        <v>1.38622356638077</v>
+      </c>
+      <c r="CO113" t="n">
+        <v>1.38367073687885</v>
+      </c>
+      <c r="CP113" t="n">
+        <v>1.38163372762157</v>
+      </c>
+      <c r="CQ113" t="n">
+        <v>1.38008991126644</v>
+      </c>
+      <c r="CR113" t="n">
+        <v>1.37899337359569</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>1.37835615491647</v>
+      </c>
+      <c r="CT113" t="n">
+        <v>1.37819664376915</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>1.37858906793526</v>
+      </c>
+      <c r="CV113" t="n">
+        <v>1.37941310489775</v>
+      </c>
+      <c r="CW113" t="n">
+        <v>1.38068593534693</v>
+      </c>
+      <c r="CX113" t="n">
+        <v>1.38223250608931</v>
+      </c>
+      <c r="CY113" t="n">
+        <v>1.3832707167948</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>1.38344353148305</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>1.38259738286632</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>1.38097525385209</v>
+      </c>
+      <c r="DC113" t="n">
+        <v>1.37861905983798</v>
+      </c>
+      <c r="DD113" t="n">
+        <v>1.37515990010817</v>
+      </c>
+      <c r="DE113" t="n">
+        <v>1.37095726625498</v>
+      </c>
+      <c r="DF113" t="n">
+        <v>1.36590080909493</v>
+      </c>
+      <c r="DG113" t="n">
+        <v>1.35997583408886</v>
+      </c>
+      <c r="DH113" t="n">
+        <v>1.35319741567004</v>
+      </c>
+      <c r="DI113" t="n">
+        <v>1.345491877943</v>
+      </c>
+      <c r="DJ113" t="n">
+        <v>1.33701721303563</v>
+      </c>
+      <c r="DK113" t="n">
+        <v>1.32771159366299</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>1.31738266317469</v>
+      </c>
+      <c r="DM113" t="n">
+        <v>1.30621693212945</v>
+      </c>
+      <c r="DN113" t="n">
+        <v>1.29432038978443</v>
+      </c>
+      <c r="DO113" t="n">
+        <v>1.28156947038544</v>
+      </c>
+      <c r="DP113" t="n">
+        <v>1.26776083705327</v>
+      </c>
+      <c r="DQ113" t="n">
+        <v>1.25313652820645</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44190</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0700000002979984</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.044868233774712</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0534127886249856</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.06960769340441469</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0639190187718519</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0585381748985563</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0742648071750034</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.09486239924668841</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.11688905725471</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.145795761400507</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.183406368668402</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.229185947072924</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.282395840393319</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.340328956323926</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.403192536340636</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.470391919452755</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.539035139916677</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.608512894237336</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.678064140760939</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.746532921951205</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.814010336395705</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.875883926156007</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.930253099954831</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.977708233591713</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.01906116442914</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1.06177601978836</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.1078582458688</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.15659433264726</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1.2061241216971</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.24898641731858</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.28288829707799</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.307455353052</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.32427142387543</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.34091039166953</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.3593546180395</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.37950847921135</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.40139534506522</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.42259291394359</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.44387851233725</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.46449747211274</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.4835595157266</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.49991749416749</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.51302211351204</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.52260021300556</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.52892436395037</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.53194006829335</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.53153284706878</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>1.5277071886677</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.52125850864486</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>1.51509094996332</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.50980260222021</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.5055215916052</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.50227899392332</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.50010959463764</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.49886484276684</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>1.4986056554942</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.49934054595287</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.50117038675769</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>1.50391882112052</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.50768410239156</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>1.51233108744484</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.51626653263277</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.51932397544259</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.52136787590901</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.52253372695188</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.52280644934679</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.52212074364518</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>1.52046916659861</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>1.517917323911</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>1.51452410321882</v>
+      </c>
+      <c r="BT114" t="n">
+        <v>1.51009219611178</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>1.50471791741928</v>
+      </c>
+      <c r="BV114" t="n">
+        <v>1.49848448004688</v>
+      </c>
+      <c r="BW114" t="n">
+        <v>1.49138686590797</v>
+      </c>
+      <c r="BX114" t="n">
+        <v>1.48321166670264</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>1.47411589564893</v>
+      </c>
+      <c r="BZ114" t="n">
+        <v>1.46417390701903</v>
+      </c>
+      <c r="CA114" t="n">
+        <v>1.45327529978429</v>
+      </c>
+      <c r="CB114" t="n">
+        <v>1.44138688739125</v>
+      </c>
+      <c r="CC114" t="n">
+        <v>1.42866653467724</v>
+      </c>
+      <c r="CD114" t="n">
+        <v>1.41500201908191</v>
+      </c>
+      <c r="CE114" t="n">
+        <v>1.40268141572756</v>
+      </c>
+      <c r="CF114" t="n">
+        <v>1.3911165708267</v>
+      </c>
+      <c r="CG114" t="n">
+        <v>1.38055204293441</v>
+      </c>
+      <c r="CH114" t="n">
+        <v>1.37145698035998</v>
+      </c>
+      <c r="CI114" t="n">
+        <v>1.36349118263577</v>
+      </c>
+      <c r="CJ114" t="n">
+        <v>1.35667271239591</v>
+      </c>
+      <c r="CK114" t="n">
+        <v>1.35102441526305</v>
+      </c>
+      <c r="CL114" t="n">
+        <v>1.34652333680962</v>
+      </c>
+      <c r="CM114" t="n">
+        <v>1.34318796869634</v>
+      </c>
+      <c r="CN114" t="n">
+        <v>1.3410027534554</v>
+      </c>
+      <c r="CO114" t="n">
+        <v>1.33994390332043</v>
+      </c>
+      <c r="CP114" t="n">
+        <v>1.34007463725154</v>
+      </c>
+      <c r="CQ114" t="n">
+        <v>1.34139640768218</v>
+      </c>
+      <c r="CR114" t="n">
+        <v>1.34387640684873</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>1.34748742408627</v>
+      </c>
+      <c r="CT114" t="n">
+        <v>1.35220686766688</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>1.3581837143745</v>
+      </c>
+      <c r="CV114" t="n">
+        <v>1.3653468784868</v>
+      </c>
+      <c r="CW114" t="n">
+        <v>1.37361481483592</v>
+      </c>
+      <c r="CX114" t="n">
+        <v>1.38256269779058</v>
+      </c>
+      <c r="CY114" t="n">
+        <v>1.39058718394719</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>1.39697315025196</v>
+      </c>
+      <c r="DA114" t="n">
+        <v>1.40175151426491</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>1.40489757573178</v>
+      </c>
+      <c r="DC114" t="n">
+        <v>1.40652738754682</v>
+      </c>
+      <c r="DD114" t="n">
+        <v>1.40658932909087</v>
+      </c>
+      <c r="DE114" t="n">
+        <v>1.4048613205499</v>
+      </c>
+      <c r="DF114" t="n">
+        <v>1.40160647867663</v>
+      </c>
+      <c r="DG114" t="n">
+        <v>1.39676510614422</v>
+      </c>
+      <c r="DH114" t="n">
+        <v>1.39032656056492</v>
+      </c>
+      <c r="DI114" t="n">
+        <v>1.38222091616868</v>
+      </c>
+      <c r="DJ114" t="n">
+        <v>1.37261962599817</v>
+      </c>
+      <c r="DK114" t="n">
+        <v>1.36145016914933</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>1.3484885372644</v>
+      </c>
+      <c r="DM114" t="n">
+        <v>1.33395915638548</v>
+      </c>
+      <c r="DN114" t="n">
+        <v>1.31800537835254</v>
+      </c>
+      <c r="DO114" t="n">
+        <v>1.30044265567725</v>
+      </c>
+      <c r="DP114" t="n">
+        <v>1.28102237705202</v>
+      </c>
+      <c r="DQ114" t="n">
+        <v>1.26007294061214</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0650000013410867</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0471879862335313</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.06825318195303121</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.06760722585789609</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0744483953543096</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.064079234503545</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0508602493319227</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0588476936004423</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0902369312551166</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.127364845557056</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.165769323578098</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.205260509467255</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.246728041482964</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.296183667182445</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.356658688595397</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.427748591050765</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.50488346142428</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.5817563977582459</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.656047118718984</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.7269369664715351</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.793727387459556</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.854002076734704</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.906796495795711</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.951523219619535</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.990457184249838</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1.03232650565062</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.07992649638997</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.13226107407321</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1.18715702370318</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.23133685872247</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.26182487400817</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.27837045496548</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.28416740475483</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.29520336693097</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.31622264972991</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.34778458461983</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.38652705360326</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.41965255620845</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.44734974101103</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.46765495934876</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.48105755887304</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.49153661613435</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.49993505125302</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.50610307270939</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.51007524641728</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.5119890698787</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.51169190519419</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1.50923607182927</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.50499101751924</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>1.50096654902235</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.49750440500448</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.49460718310149</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.49228601795519</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.49067081637376</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.48964472708216</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>1.48919726407864</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>1.48929945178988</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.49009380562996</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>1.49150409573356</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.49359453047487</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>1.49595601808485</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.49799591954473</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.499481993189</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>1.50033707130948</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.50057078208251</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.50024744076431</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.49935726935661</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>1.49784899484688</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>1.49568890897509</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>1.49305997187609</v>
+      </c>
+      <c r="BT115" t="n">
+        <v>1.48973991127408</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>1.48586190090838</v>
+      </c>
+      <c r="BV115" t="n">
+        <v>1.48133331821372</v>
+      </c>
+      <c r="BW115" t="n">
+        <v>1.4763333023478</v>
+      </c>
+      <c r="BX115" t="n">
+        <v>1.47068331083234</v>
+      </c>
+      <c r="BY115" t="n">
+        <v>1.46437047392329</v>
+      </c>
+      <c r="BZ115" t="n">
+        <v>1.45746420561629</v>
+      </c>
+      <c r="CA115" t="n">
+        <v>1.45003247262403</v>
+      </c>
+      <c r="CB115" t="n">
+        <v>1.44199273953439</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>1.43323615084816</v>
+      </c>
+      <c r="CD115" t="n">
+        <v>1.42395779959785</v>
+      </c>
+      <c r="CE115" t="n">
+        <v>1.41555656169074</v>
+      </c>
+      <c r="CF115" t="n">
+        <v>1.4073912618281</v>
+      </c>
+      <c r="CG115" t="n">
+        <v>1.39964181600176</v>
+      </c>
+      <c r="CH115" t="n">
+        <v>1.39270612433588</v>
+      </c>
+      <c r="CI115" t="n">
+        <v>1.38633512581936</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>1.38053756272886</v>
+      </c>
+      <c r="CK115" t="n">
+        <v>1.37532292630393</v>
+      </c>
+      <c r="CL115" t="n">
+        <v>1.37068228596862</v>
+      </c>
+      <c r="CM115" t="n">
+        <v>1.3666179821307</v>
+      </c>
+      <c r="CN115" t="n">
+        <v>1.36313903940559</v>
+      </c>
+      <c r="CO115" t="n">
+        <v>1.36023102492637</v>
+      </c>
+      <c r="CP115" t="n">
+        <v>1.35786230028978</v>
+      </c>
+      <c r="CQ115" t="n">
+        <v>1.35611074381647</v>
+      </c>
+      <c r="CR115" t="n">
+        <v>1.35495690135831</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>1.35435830159464</v>
+      </c>
+      <c r="CT115" t="n">
+        <v>1.3542940202143</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>1.3548795512971</v>
+      </c>
+      <c r="CV115" t="n">
+        <v>1.35605107588052</v>
+      </c>
+      <c r="CW115" t="n">
+        <v>1.35779060154829</v>
+      </c>
+      <c r="CX115" t="n">
+        <v>1.3598466643252</v>
+      </c>
+      <c r="CY115" t="n">
+        <v>1.36145903873163</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>1.36231185170725</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>1.36240244975001</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>1.3615668774108</v>
+      </c>
+      <c r="DC115" t="n">
+        <v>1.36010207136388</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>1.35785771666729</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>1.35467131429918</v>
+      </c>
+      <c r="DF115" t="n">
+        <v>1.35081930013544</v>
+      </c>
+      <c r="DG115" t="n">
+        <v>1.34620011448994</v>
+      </c>
+      <c r="DH115" t="n">
+        <v>1.34080052617648</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>1.33463115824579</v>
+      </c>
+      <c r="DJ115" t="n">
+        <v>1.32764146778586</v>
+      </c>
+      <c r="DK115" t="n">
+        <v>1.31997397630189</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>1.31138868480139</v>
+      </c>
+      <c r="DM115" t="n">
+        <v>1.30211977416646</v>
+      </c>
+      <c r="DN115" t="n">
+        <v>1.29203331988315</v>
+      </c>
+      <c r="DO115" t="n">
+        <v>1.28130356403302</v>
+      </c>
+      <c r="DP115" t="n">
+        <v>1.26967746178028</v>
+      </c>
+      <c r="DQ115" t="n">
+        <v>1.2571782723171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.0676999986172433</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.059336116607035</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0547287202993096</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0636946688257973</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0724251490304972</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.084277179492867</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.103270223396126</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.137403436585072</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.186318699392096</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.241662369881565</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.301859622900418</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.366682443710394</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.435590470978854</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.509301772453234</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.590244174673359</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.677235042448152</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.7643270802565389</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.850191850842456</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.932069295734079</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.00986933651381</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.08101418546559</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.14802296051572</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1.20978459304853</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.26617549224227</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.31565323238085</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1.35929876052019</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.39700365549623</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.42837860602238</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1.45497674014611</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.48506514507307</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.52119284483687</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.56338436746146</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.60784114039982</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.64042563165856</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.65709631083082</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.65729013240975</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.6450220905872</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.64007802066635</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.64745046864966</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.66736631244578</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.69587672263754</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.72276264135307</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.74459722501112</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.76121944901305</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.77225550186664</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.77836263573576</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.77930373149126</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>1.77491418236864</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.76620623617456</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>1.75750370099138</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.74965090491107</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.74267146819607</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.73662965295653</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.73168304340886</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.72762789194397</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1.72446794611862</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.72220535688874</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.72101485755432</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>1.72075761490331</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.72151320757095</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>1.7228051831418</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.72395543277958</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.72464223258032</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.72477562413681</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.72436793205792</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>1.72349267762442</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.7221427240446</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>1.72022826451326</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>1.7177736805257</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>1.7149279910699</v>
+      </c>
+      <c r="BT116" t="n">
+        <v>1.71154098409867</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>1.70757879187965</v>
+      </c>
+      <c r="BV116" t="n">
+        <v>1.703071020144</v>
+      </c>
+      <c r="BW116" t="n">
+        <v>1.69820495301341</v>
+      </c>
+      <c r="BX116" t="n">
+        <v>1.69277512750644</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>1.68675982312523</v>
+      </c>
+      <c r="BZ116" t="n">
+        <v>1.68022528895376</v>
+      </c>
+      <c r="CA116" t="n">
+        <v>1.67325764370723</v>
+      </c>
+      <c r="CB116" t="n">
+        <v>1.66577937203157</v>
+      </c>
+      <c r="CC116" t="n">
+        <v>1.65769037846699</v>
+      </c>
+      <c r="CD116" t="n">
+        <v>1.64908190547033</v>
+      </c>
+      <c r="CE116" t="n">
+        <v>1.64126006089961</v>
+      </c>
+      <c r="CF116" t="n">
+        <v>1.63359902453317</v>
+      </c>
+      <c r="CG116" t="n">
+        <v>1.6261055109298</v>
+      </c>
+      <c r="CH116" t="n">
+        <v>1.6194464679304</v>
+      </c>
+      <c r="CI116" t="n">
+        <v>1.61315794788487</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>1.60732291109296</v>
+      </c>
+      <c r="CK116" t="n">
+        <v>1.60187603231425</v>
+      </c>
+      <c r="CL116" t="n">
+        <v>1.59698085664528</v>
+      </c>
+      <c r="CM116" t="n">
+        <v>1.59248458837689</v>
+      </c>
+      <c r="CN116" t="n">
+        <v>1.58845074443042</v>
+      </c>
+      <c r="CO116" t="n">
+        <v>1.58481575892417</v>
+      </c>
+      <c r="CP116" t="n">
+        <v>1.58165170548507</v>
+      </c>
+      <c r="CQ116" t="n">
+        <v>1.57895236842526</v>
+      </c>
+      <c r="CR116" t="n">
+        <v>1.57672476833683</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>1.57490645414874</v>
+      </c>
+      <c r="CT116" t="n">
+        <v>1.57348884030792</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>1.57262722098596</v>
+      </c>
+      <c r="CV116" t="n">
+        <v>1.57220605881036</v>
+      </c>
+      <c r="CW116" t="n">
+        <v>1.57220431587265</v>
+      </c>
+      <c r="CX116" t="n">
+        <v>1.57241477017518</v>
+      </c>
+      <c r="CY116" t="n">
+        <v>1.57219345239867</v>
+      </c>
+      <c r="CZ116" t="n">
+        <v>1.57118358313831</v>
+      </c>
+      <c r="DA116" t="n">
+        <v>1.56938031493138</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>1.56661047782907</v>
+      </c>
+      <c r="DC116" t="n">
+        <v>1.56332141430863</v>
+      </c>
+      <c r="DD116" t="n">
+        <v>1.55918326778201</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>1.55396840750668</v>
+      </c>
+      <c r="DF116" t="n">
+        <v>1.5482661426089</v>
+      </c>
+      <c r="DG116" t="n">
+        <v>1.5417268009843</v>
+      </c>
+      <c r="DH116" t="n">
+        <v>1.53439578263505</v>
+      </c>
+      <c r="DI116" t="n">
+        <v>1.52619596174312</v>
+      </c>
+      <c r="DJ116" t="n">
+        <v>1.51733936636296</v>
+      </c>
+      <c r="DK116" t="n">
+        <v>1.50775756105146</v>
+      </c>
+      <c r="DL116" t="n">
+        <v>1.4972833631395</v>
+      </c>
+      <c r="DM116" t="n">
+        <v>1.48592485636757</v>
+      </c>
+      <c r="DN116" t="n">
+        <v>1.47384575248042</v>
+      </c>
+      <c r="DO116" t="n">
+        <v>1.4611470335513</v>
+      </c>
+      <c r="DP116" t="n">
+        <v>1.44752154975082</v>
+      </c>
+      <c r="DQ116" t="n">
+        <v>1.43299676841836</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0680000521242619</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0580450278565753</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.06268340741727201</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.06326676144678869</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0577167663911915</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.074213629326134</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0858617280258412</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.108733875342039</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.145538413130364</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.1913332179593</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.245499474308563</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.308670154835449</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.379172404473064</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.454358454380443</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.535304868112784</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.621114012446442</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.710882097542509</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.798406238300038</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.883528576795392</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.964814540944562</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.04183778923392</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.11043633971164</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1.17060345842447</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.22176654464474</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.26437159538213</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1.30425629502561</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.3434752946392</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.38176130284427</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1.41876903086642</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.45491355940732</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.49069656760902</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.52649362522393</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.55951880100483</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.58138055007574</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.59211938789391</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.59007432007035</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.57961159251547</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.57792263352001</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.58958285120066</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.61446590027797</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.64956888109096</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.68190804859528</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.70832240445386</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.72829027340096</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.74202726616986</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.74945449614464</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.75065430424713</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>1.74544925089132</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.73500129993611</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>1.72449653806227</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.71508241159949</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.70679908170488</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.69973157815546</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.69401781317917</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.68944794090925</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1.68608731419488</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.68378718918057</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.68286676146183</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>1.68323148764058</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.68464680461915</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1.6870117373837</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.68905352263429</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.69050135824148</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.69123548710674</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.69122626362608</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.69067412109956</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.68944650355371</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>1.68749486054989</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>1.68481804236942</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>1.68161222193216</v>
+      </c>
+      <c r="BT117" t="n">
+        <v>1.67770140497939</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1.67305238693998</v>
+      </c>
+      <c r="BV117" t="n">
+        <v>1.66770917667813</v>
+      </c>
+      <c r="BW117" t="n">
+        <v>1.66184944539409</v>
+      </c>
+      <c r="BX117" t="n">
+        <v>1.65525525943027</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>1.6479092461532</v>
+      </c>
+      <c r="BZ117" t="n">
+        <v>1.63989229600608</v>
+      </c>
+      <c r="CA117" t="n">
+        <v>1.63128923609714</v>
+      </c>
+      <c r="CB117" t="n">
+        <v>1.62197054064392</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>1.61172858167236</v>
+      </c>
+      <c r="CD117" t="n">
+        <v>1.6012381547978</v>
+      </c>
+      <c r="CE117" t="n">
+        <v>1.59133569254251</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>1.58199427227941</v>
+      </c>
+      <c r="CG117" t="n">
+        <v>1.57333821065698</v>
+      </c>
+      <c r="CH117" t="n">
+        <v>1.56528093193087</v>
+      </c>
+      <c r="CI117" t="n">
+        <v>1.55803408968294</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>1.55137773287343</v>
+      </c>
+      <c r="CK117" t="n">
+        <v>1.54539335153895</v>
+      </c>
+      <c r="CL117" t="n">
+        <v>1.54000978638473</v>
+      </c>
+      <c r="CM117" t="n">
+        <v>1.53541846932963</v>
+      </c>
+      <c r="CN117" t="n">
+        <v>1.53144711406704</v>
+      </c>
+      <c r="CO117" t="n">
+        <v>1.52810122534661</v>
+      </c>
+      <c r="CP117" t="n">
+        <v>1.52541757864691</v>
+      </c>
+      <c r="CQ117" t="n">
+        <v>1.52345095994948</v>
+      </c>
+      <c r="CR117" t="n">
+        <v>1.52217949763103</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>1.52154871747484</v>
+      </c>
+      <c r="CT117" t="n">
+        <v>1.52153072561223</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>1.52227283573398</v>
+      </c>
+      <c r="CV117" t="n">
+        <v>1.52369423860342</v>
+      </c>
+      <c r="CW117" t="n">
+        <v>1.52586325680893</v>
+      </c>
+      <c r="CX117" t="n">
+        <v>1.52830114419422</v>
+      </c>
+      <c r="CY117" t="n">
+        <v>1.5301170948724</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>1.53119751315399</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>1.53117082749508</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>1.53021731103751</v>
+      </c>
+      <c r="DC117" t="n">
+        <v>1.52845521964806</v>
+      </c>
+      <c r="DD117" t="n">
+        <v>1.52575211679119</v>
+      </c>
+      <c r="DE117" t="n">
+        <v>1.52211390099274</v>
+      </c>
+      <c r="DF117" t="n">
+        <v>1.5175010801247</v>
+      </c>
+      <c r="DG117" t="n">
+        <v>1.51209132946091</v>
+      </c>
+      <c r="DH117" t="n">
+        <v>1.5057036732107</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>1.49831653786058</v>
+      </c>
+      <c r="DJ117" t="n">
+        <v>1.49002895997796</v>
+      </c>
+      <c r="DK117" t="n">
+        <v>1.48096865192995</v>
+      </c>
+      <c r="DL117" t="n">
+        <v>1.47088644189222</v>
+      </c>
+      <c r="DM117" t="n">
+        <v>1.45978611058644</v>
+      </c>
+      <c r="DN117" t="n">
+        <v>1.4478294059102</v>
+      </c>
+      <c r="DO117" t="n">
+        <v>1.43511542147262</v>
+      </c>
+      <c r="DP117" t="n">
+        <v>1.42133923319287</v>
+      </c>
+      <c r="DQ117" t="n">
+        <v>1.4065269550318</v>
       </c>
     </row>
   </sheetData>
